--- a/RawData/2000_Olympics.xlsx
+++ b/RawData/2000_Olympics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe58e30a1c30673/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{A1434E1B-5F49-4E39-B32F-609C3D232D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E0D4967-A0B3-428E-ADD4-4CB63FACBA83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359ADA91-2FED-D64E-9B8E-27D950032C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1940" windowWidth="28000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000_Olympics" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold </t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Athlete Total</t>
-  </si>
-  <si>
     <t>GDP</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Algeria </t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Athletes</t>
   </si>
 </sst>
 </file>
@@ -1144,14 +1144,14 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1160,34 +1160,34 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2&amp;B2</f>
         <v>2000 Algeria </v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -1214,13 +1214,13 @@
         <v>30950322</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3</f>
         <v xml:space="preserve">2000 Argentina </v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -1247,13 +1247,13 @@
         <v>36858473</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2000 Armenia </v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1280,13 +1280,13 @@
         <v>3169445</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>2000 Australia </v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -1313,13 +1313,13 @@
         <v>19158366</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>2000 Austria </v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1346,13 +1346,13 @@
         <v>8011561</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>2000 Azerbaijan </v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -1379,13 +1379,13 @@
         <v>8054445</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>2000 Bahamas </v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2000</v>
@@ -1412,13 +1412,13 @@
         <v>299286</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>2000 Barbados </v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2000</v>
@@ -1445,13 +1445,13 @@
         <v>268906</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>2000 Belarus </v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -1478,13 +1478,13 @@
         <v>10125573</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>2000 Belgium </v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -1511,13 +1511,13 @@
         <v>10248168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>2000 Brazil </v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2000</v>
@@ -1544,13 +1544,13 @@
         <v>173857700</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>2000 Bulgaria </v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>2000</v>
@@ -1577,13 +1577,13 @@
         <v>7842124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>2000 Cameroon </v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2000</v>
@@ -1610,13 +1610,13 @@
         <v>15139138</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>2000 Canada </v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2000</v>
@@ -1643,13 +1643,13 @@
         <v>30826566</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>2000 Chile </v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>2000</v>
@@ -1676,13 +1676,13 @@
         <v>15411830</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>2000 China </v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -1709,13 +1709,13 @@
         <v>1262374160</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">2000 Chinese Taipei </v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>2000</v>
@@ -1742,13 +1742,13 @@
         <v>22350362</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>2000 Colombia </v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>2000</v>
@@ -1775,13 +1775,13 @@
         <v>43193863</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>2000 Costa Rica </v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>2000</v>
@@ -1808,13 +1808,13 @@
         <v>3544143</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>2000 Croatia </v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -1841,13 +1841,13 @@
         <v>4429072</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>2000 Cuba </v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>2000</v>
@@ -1874,13 +1874,13 @@
         <v>11142000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>2000 Czech Republic </v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>2000</v>
@@ -1907,13 +1907,13 @@
         <v>10272933</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>2000 Denmark </v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>2000</v>
@@ -1940,13 +1940,13 @@
         <v>5337344</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>2000 Estonia </v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1973,13 +1973,13 @@
         <v>1371923</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>2000 Ethiopia </v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>2000</v>
@@ -2006,13 +2006,13 @@
         <v>64183968</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>2000 Finland </v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -2039,13 +2039,13 @@
         <v>5176198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>2000 France </v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>2000</v>
@@ -2072,13 +2072,13 @@
         <v>59040243</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>2000 Georgia </v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2000</v>
@@ -2105,13 +2105,13 @@
         <v>4720061</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>2000 Germany </v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>2000</v>
@@ -2138,13 +2138,13 @@
         <v>82070000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>2000 Great Britain </v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>2000</v>
@@ -2171,13 +2171,13 @@
         <v>59627220</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>2000 Greece </v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>2000</v>
@@ -2204,13 +2204,13 @@
         <v>10759513</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>2000 Hungary </v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>2000</v>
@@ -2237,13 +2237,13 @@
         <v>10186926</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>2000 Iceland </v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>2000</v>
@@ -2270,13 +2270,13 @@
         <v>281014</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>2000 India </v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>2000</v>
@@ -2303,13 +2303,13 @@
         <v>1015923000</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>2000 Indonesia </v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -2336,13 +2336,13 @@
         <v>212438070</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>2000 Iran </v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2369,13 +2369,13 @@
         <v>64315880</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>2000 Ireland </v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>2000</v>
@@ -2402,13 +2402,13 @@
         <v>3801328</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>2000 Israel </v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>2000</v>
@@ -2435,13 +2435,13 @@
         <v>6338133</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>2000 Italy </v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>2000</v>
@@ -2468,13 +2468,13 @@
         <v>57188114</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>2000 Jamaica </v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>2000</v>
@@ -2501,13 +2501,13 @@
         <v>2610455</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>2000 Japan </v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>2000</v>
@@ -2534,13 +2534,13 @@
         <v>126879614</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>2000 Kazakhstan </v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>2000</v>
@@ -2567,13 +2567,13 @@
         <v>15808408</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>2000 Kenya </v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>2000</v>
@@ -2600,13 +2600,13 @@
         <v>30456290</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>2000 Kuwait </v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>2000</v>
@@ -2633,13 +2633,13 @@
         <v>2190000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>2000 Kyrgyzstan </v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>2000</v>
@@ -2666,13 +2666,13 @@
         <v>4915300</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>2000 Latvia </v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>2000</v>
@@ -2699,13 +2699,13 @@
         <v>2372000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>2000 Lithuania </v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>2000</v>
@@ -2732,13 +2732,13 @@
         <v>3599014</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>2000 Macedonia </v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>2000</v>
@@ -2765,13 +2765,13 @@
         <v>2015971</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>2000 Mexico </v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -2798,13 +2798,13 @@
         <v>99555200</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>2000 Moldova </v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>2000</v>
@@ -2831,13 +2831,13 @@
         <v>4240509</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>2000 Morocco </v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -2864,13 +2864,13 @@
         <v>29651790</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>2000 Mozambique </v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>2000</v>
@@ -2897,13 +2897,13 @@
         <v>18308580</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>2000 Netherlands </v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>2000</v>
@@ -2930,13 +2930,13 @@
         <v>15908833</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>2000 New Zealand </v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>2000</v>
@@ -2963,13 +2963,13 @@
         <v>3845120</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>2000 Nigeria </v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>2000</v>
@@ -2996,13 +2996,13 @@
         <v>124772600</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>2000 North Korea </v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>2000</v>
@@ -3029,13 +3029,13 @@
         <v>21939233</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>2000 Norway </v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>2000</v>
@@ -3062,13 +3062,13 @@
         <v>4483554</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>2000 Poland </v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>2000</v>
@@ -3095,13 +3095,13 @@
         <v>38648000</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>2000 Portugal </v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>2000</v>
@@ -3128,13 +3128,13 @@
         <v>10225800</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>2000 Qatar </v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>2000</v>
@@ -3161,13 +3161,13 @@
         <v>606339</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>2000 Romania </v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>2000</v>
@@ -3194,13 +3194,13 @@
         <v>22178364</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>2000 Russia </v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>2000</v>
@@ -3227,13 +3227,13 @@
         <v>146731333</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>2000 Saudi Arabia </v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>2000</v>
@@ -3260,13 +3260,13 @@
         <v>21569237</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>2000 Slovakia </v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>2000</v>
@@ -3293,13 +3293,13 @@
         <v>5403318</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>2000 Slovenia </v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>2000</v>
@@ -3326,13 +3326,13 @@
         <v>1976370</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A81" si="1">C67&amp;B67</f>
         <v>2000 South Africa </v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -3359,13 +3359,13 @@
         <v>44333333</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>2000 South Korea </v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>2000</v>
@@ -3392,13 +3392,13 @@
         <v>46481423</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>2000 Spain </v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>2000</v>
@@ -3425,13 +3425,13 @@
         <v>39892123</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>2000 Sri Lanka </v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>2000</v>
@@ -3458,13 +3458,13 @@
         <v>19278725</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>2000 Sweden </v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -3491,13 +3491,13 @@
         <v>8870350</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>2000 Switzerland </v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>2000</v>
@@ -3524,13 +3524,13 @@
         <v>7190774</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>2000 Thailand </v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>2000</v>
@@ -3557,13 +3557,13 @@
         <v>62369873</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>2000 Trinidad and Tobago </v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>2000</v>
@@ -3590,13 +3590,13 @@
         <v>1155272</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>2000 Turkey </v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>2000</v>
@@ -3623,13 +3623,13 @@
         <v>66251119</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>2000 Ukraine </v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>2000</v>
@@ -3656,13 +3656,13 @@
         <v>49168243</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>2000 United States </v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -3689,13 +3689,13 @@
         <v>282224000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>2000 Uruguay </v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>2000</v>
@@ -3722,13 +3722,13 @@
         <v>3227565</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>2000 Uzbekistan </v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>2000</v>
@@ -3755,13 +3755,13 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>2000 Vietnam </v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>2000</v>
@@ -3788,13 +3788,13 @@
         <v>77635400</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>2000 Yugoslavia </v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>2000</v>

--- a/RawData/2000_Olympics.xlsx
+++ b/RawData/2000_Olympics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359ADA91-2FED-D64E-9B8E-27D950032C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C8B23-69FD-8244-AAA8-FE89CAF1AE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1940" windowWidth="28000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="940" windowWidth="28000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000_Olympics" sheetId="1" r:id="rId1"/>
@@ -51,256 +51,256 @@
     <t>GDP</t>
   </si>
   <si>
-    <t> Australia </t>
-  </si>
-  <si>
-    <t> Austria </t>
-  </si>
-  <si>
-    <t> Azerbaijan </t>
-  </si>
-  <si>
-    <t> Bahamas </t>
-  </si>
-  <si>
-    <t> Barbados </t>
-  </si>
-  <si>
-    <t> Belarus </t>
-  </si>
-  <si>
-    <t> Belgium </t>
-  </si>
-  <si>
-    <t> Brazil </t>
-  </si>
-  <si>
-    <t> Bulgaria </t>
-  </si>
-  <si>
-    <t> Cameroon </t>
-  </si>
-  <si>
-    <t> Canada </t>
-  </si>
-  <si>
-    <t> Chile </t>
-  </si>
-  <si>
-    <t> China </t>
-  </si>
-  <si>
-    <t> Colombia </t>
-  </si>
-  <si>
-    <t> Costa Rica </t>
-  </si>
-  <si>
-    <t> Croatia </t>
-  </si>
-  <si>
-    <t> Cuba </t>
-  </si>
-  <si>
-    <t> Czech Republic </t>
-  </si>
-  <si>
-    <t> Denmark </t>
-  </si>
-  <si>
-    <t> Estonia </t>
-  </si>
-  <si>
-    <t> Ethiopia </t>
-  </si>
-  <si>
-    <t> Finland </t>
-  </si>
-  <si>
-    <t> France </t>
-  </si>
-  <si>
-    <t> Georgia </t>
-  </si>
-  <si>
-    <t> Germany </t>
-  </si>
-  <si>
-    <t> Great Britain </t>
-  </si>
-  <si>
-    <t> Greece </t>
-  </si>
-  <si>
-    <t> Hungary </t>
-  </si>
-  <si>
-    <t> Iceland </t>
-  </si>
-  <si>
-    <t> India </t>
-  </si>
-  <si>
-    <t> Indonesia </t>
-  </si>
-  <si>
-    <t> Iran </t>
-  </si>
-  <si>
-    <t> Ireland </t>
-  </si>
-  <si>
-    <t> Israel </t>
-  </si>
-  <si>
-    <t> Italy </t>
-  </si>
-  <si>
-    <t> Jamaica </t>
-  </si>
-  <si>
-    <t> Japan </t>
-  </si>
-  <si>
-    <t> Kazakhstan </t>
-  </si>
-  <si>
-    <t> Kenya </t>
-  </si>
-  <si>
-    <t> Kuwait </t>
-  </si>
-  <si>
-    <t> Kyrgyzstan </t>
-  </si>
-  <si>
-    <t> Latvia </t>
-  </si>
-  <si>
-    <t> Lithuania </t>
-  </si>
-  <si>
-    <t> Macedonia </t>
-  </si>
-  <si>
-    <t> Mexico </t>
-  </si>
-  <si>
-    <t> Moldova </t>
-  </si>
-  <si>
-    <t> Morocco </t>
-  </si>
-  <si>
-    <t> Mozambique </t>
-  </si>
-  <si>
-    <t> Netherlands </t>
-  </si>
-  <si>
-    <t> New Zealand </t>
-  </si>
-  <si>
-    <t> Nigeria </t>
-  </si>
-  <si>
-    <t> North Korea </t>
-  </si>
-  <si>
-    <t> Norway </t>
-  </si>
-  <si>
-    <t> Poland </t>
-  </si>
-  <si>
-    <t> Portugal </t>
-  </si>
-  <si>
-    <t> Qatar </t>
-  </si>
-  <si>
-    <t> Romania </t>
-  </si>
-  <si>
-    <t> Russia </t>
-  </si>
-  <si>
-    <t> Saudi Arabia </t>
-  </si>
-  <si>
-    <t> Slovakia </t>
-  </si>
-  <si>
-    <t> Slovenia </t>
-  </si>
-  <si>
-    <t> South Africa </t>
-  </si>
-  <si>
-    <t> South Korea </t>
-  </si>
-  <si>
-    <t> Spain </t>
-  </si>
-  <si>
-    <t> Sri Lanka </t>
-  </si>
-  <si>
-    <t> Sweden </t>
-  </si>
-  <si>
-    <t> Switzerland </t>
-  </si>
-  <si>
-    <t> Thailand </t>
-  </si>
-  <si>
-    <t> Trinidad and Tobago </t>
-  </si>
-  <si>
-    <t> Turkey </t>
-  </si>
-  <si>
-    <t> Ukraine </t>
-  </si>
-  <si>
-    <t> United States </t>
-  </si>
-  <si>
-    <t> Uruguay </t>
-  </si>
-  <si>
-    <t> Uzbekistan </t>
-  </si>
-  <si>
-    <t> Vietnam </t>
-  </si>
-  <si>
-    <t> Yugoslavia </t>
-  </si>
-  <si>
     <t>YearCountry</t>
   </si>
   <si>
     <t>Population</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chinese Taipei </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Armenia </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Argentina </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Algeria </t>
-  </si>
-  <si>
     <t>Gold</t>
   </si>
   <si>
     <t>Athletes</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>ChineseTaipei</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>CostaRica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CzechRepublic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>GreatBritain</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>NorthKorea</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>SaudiArabia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>SouthAfrica</t>
+  </si>
+  <si>
+    <t>SouthKorea</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>SriLanka</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>TrinidadandTobago</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UnitedStates</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
   </si>
 </sst>
 </file>
@@ -784,8 +784,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1141,17 +1144,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1172,22 +1178,22 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>C2&amp;B2</f>
-        <v>2000 Algeria </v>
+        <v>2000Algeria</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -1217,10 +1223,10 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A66" si="0">C3&amp;B3</f>
-        <v xml:space="preserve">2000 Argentina </v>
+        <v>2000Argentina</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -1250,10 +1256,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">2000 Armenia </v>
+        <v>2000Armenia</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1283,10 +1289,10 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Australia </v>
+        <v>2000Australia</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2000</v>
@@ -1316,10 +1322,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Austria </v>
+        <v>2000Austria</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1349,10 +1355,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Azerbaijan </v>
+        <v>2000Azerbaijan</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -1382,10 +1388,10 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Bahamas </v>
+        <v>2000Bahamas</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2000</v>
@@ -1415,10 +1421,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Barbados </v>
+        <v>2000Barbados</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2000</v>
@@ -1448,10 +1454,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Belarus </v>
+        <v>2000Belarus</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -1481,10 +1487,10 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Belgium </v>
+        <v>2000Belgium</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2000</v>
@@ -1514,10 +1520,10 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Brazil </v>
+        <v>2000Brazil</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2000</v>
@@ -1547,10 +1553,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Bulgaria </v>
+        <v>2000Bulgaria</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>2000</v>
@@ -1580,10 +1586,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Cameroon </v>
+        <v>2000Cameroon</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2000</v>
@@ -1613,10 +1619,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Canada </v>
+        <v>2000Canada</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2000</v>
@@ -1646,10 +1652,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Chile </v>
+        <v>2000Chile</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>2000</v>
@@ -1679,10 +1685,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>2000 China </v>
+        <v>2000China</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -1712,10 +1718,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">2000 Chinese Taipei </v>
+        <v>2000ChineseTaipei</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2000</v>
@@ -1745,10 +1751,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Colombia </v>
+        <v>2000Colombia</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2000</v>
@@ -1778,10 +1784,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Costa Rica </v>
+        <v>2000CostaRica</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2000</v>
@@ -1811,10 +1817,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Croatia </v>
+        <v>2000Croatia</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -1844,10 +1850,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Cuba </v>
+        <v>2000Cuba</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2000</v>
@@ -1877,10 +1883,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Czech Republic </v>
+        <v>2000CzechRepublic</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2000</v>
@@ -1910,10 +1916,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Denmark </v>
+        <v>2000Denmark</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>2000</v>
@@ -1943,10 +1949,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Estonia </v>
+        <v>2000Estonia</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1976,10 +1982,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Ethiopia </v>
+        <v>2000Ethiopia</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>2000</v>
@@ -2009,10 +2015,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Finland </v>
+        <v>2000Finland</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -2042,10 +2048,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>2000 France </v>
+        <v>2000France</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>2000</v>
@@ -2075,10 +2081,10 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Georgia </v>
+        <v>2000Georgia</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2000</v>
@@ -2108,10 +2114,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Germany </v>
+        <v>2000Germany</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>2000</v>
@@ -2141,10 +2147,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Great Britain </v>
+        <v>2000GreatBritain</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>2000</v>
@@ -2174,10 +2180,10 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Greece </v>
+        <v>2000Greece</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2000</v>
@@ -2207,10 +2213,10 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Hungary </v>
+        <v>2000Hungary</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>2000</v>
@@ -2240,10 +2246,10 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Iceland </v>
+        <v>2000Iceland</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <v>2000</v>
@@ -2273,10 +2279,10 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>2000 India </v>
+        <v>2000India</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>2000</v>
@@ -2306,10 +2312,10 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Indonesia </v>
+        <v>2000Indonesia</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -2339,10 +2345,10 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Iran </v>
+        <v>2000Iran</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2372,10 +2378,10 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Ireland </v>
+        <v>2000Ireland</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>2000</v>
@@ -2405,10 +2411,10 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Israel </v>
+        <v>2000Israel</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C39">
         <v>2000</v>
@@ -2438,10 +2444,10 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Italy </v>
+        <v>2000Italy</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2000</v>
@@ -2471,10 +2477,10 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Jamaica </v>
+        <v>2000Jamaica</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>2000</v>
@@ -2504,10 +2510,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Japan </v>
+        <v>2000Japan</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>2000</v>
@@ -2537,10 +2543,10 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Kazakhstan </v>
+        <v>2000Kazakhstan</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>2000</v>
@@ -2570,10 +2576,10 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Kenya </v>
+        <v>2000Kenya</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>2000</v>
@@ -2603,10 +2609,10 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Kuwait </v>
+        <v>2000Kuwait</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>2000</v>
@@ -2636,10 +2642,10 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Kyrgyzstan </v>
+        <v>2000Kyrgyzstan</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>2000</v>
@@ -2669,10 +2675,10 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Latvia </v>
+        <v>2000Latvia</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>2000</v>
@@ -2702,10 +2708,10 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Lithuania </v>
+        <v>2000Lithuania</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>2000</v>
@@ -2735,10 +2741,10 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Macedonia </v>
+        <v>2000Macedonia</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>2000</v>
@@ -2768,10 +2774,10 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Mexico </v>
+        <v>2000Mexico</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -2801,10 +2807,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Moldova </v>
+        <v>2000Moldova</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>2000</v>
@@ -2834,10 +2840,10 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Morocco </v>
+        <v>2000Morocco</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -2867,10 +2873,10 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Mozambique </v>
+        <v>2000Mozambique</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>2000</v>
@@ -2900,10 +2906,10 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Netherlands </v>
+        <v>2000Netherlands</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>2000</v>
@@ -2933,10 +2939,10 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>2000 New Zealand </v>
+        <v>2000NewZealand</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>2000</v>
@@ -2966,10 +2972,10 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Nigeria </v>
+        <v>2000Nigeria</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>2000</v>
@@ -2999,10 +3005,10 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>2000 North Korea </v>
+        <v>2000NorthKorea</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>2000</v>
@@ -3032,10 +3038,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Norway </v>
+        <v>2000Norway</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>2000</v>
@@ -3065,10 +3071,10 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Poland </v>
+        <v>2000Poland</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>2000</v>
@@ -3098,10 +3104,10 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Portugal </v>
+        <v>2000Portugal</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>2000</v>
@@ -3131,10 +3137,10 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Qatar </v>
+        <v>2000Qatar</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>2000</v>
@@ -3164,10 +3170,10 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Romania </v>
+        <v>2000Romania</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>2000</v>
@@ -3197,10 +3203,10 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Russia </v>
+        <v>2000Russia</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>2000</v>
@@ -3230,10 +3236,10 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Saudi Arabia </v>
+        <v>2000SaudiArabia</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>2000</v>
@@ -3263,10 +3269,10 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Slovakia </v>
+        <v>2000Slovakia</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>2000</v>
@@ -3296,10 +3302,10 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
-        <v>2000 Slovenia </v>
+        <v>2000Slovenia</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>2000</v>
@@ -3329,10 +3335,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A81" si="1">C67&amp;B67</f>
-        <v>2000 South Africa </v>
+        <v>2000SouthAfrica</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -3362,10 +3368,10 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>2000 South Korea </v>
+        <v>2000SouthKorea</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>2000</v>
@@ -3395,10 +3401,10 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Spain </v>
+        <v>2000Spain</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>2000</v>
@@ -3428,10 +3434,10 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Sri Lanka </v>
+        <v>2000SriLanka</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>2000</v>
@@ -3461,10 +3467,10 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Sweden </v>
+        <v>2000Sweden</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -3494,10 +3500,10 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Switzerland </v>
+        <v>2000Switzerland</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>2000</v>
@@ -3527,10 +3533,10 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Thailand </v>
+        <v>2000Thailand</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>2000</v>
@@ -3560,10 +3566,10 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Trinidad and Tobago </v>
+        <v>2000TrinidadandTobago</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>2000</v>
@@ -3593,10 +3599,10 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Turkey </v>
+        <v>2000Turkey</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>2000</v>
@@ -3626,10 +3632,10 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Ukraine </v>
+        <v>2000Ukraine</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C76">
         <v>2000</v>
@@ -3659,10 +3665,10 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>2000 United States </v>
+        <v>2000UnitedStates</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -3692,10 +3698,10 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Uruguay </v>
+        <v>2000Uruguay</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C78">
         <v>2000</v>
@@ -3725,10 +3731,10 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Uzbekistan </v>
+        <v>2000Uzbekistan</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>2000</v>
@@ -3758,10 +3764,10 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Vietnam </v>
+        <v>2000Vietnam</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C80">
         <v>2000</v>
@@ -3791,10 +3797,10 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>2000 Yugoslavia </v>
+        <v>2000Yugoslavia</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>2000</v>

--- a/RawData/2000_Olympics.xlsx
+++ b/RawData/2000_Olympics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C8B23-69FD-8244-AAA8-FE89CAF1AE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560D664-0A27-4F4C-BD83-83B6BDD7BE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="940" windowWidth="28000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2000_Olympics" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,24 +112,15 @@
     <t>China</t>
   </si>
   <si>
-    <t>ChineseTaipei</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
-    <t>CostaRica</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
     <t>Cuba</t>
   </si>
   <si>
-    <t>CzechRepublic</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -150,9 +142,6 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>GreatBritain</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -222,15 +211,9 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>NewZealand</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
-    <t>NorthKorea</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
@@ -249,27 +232,15 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>SaudiArabia</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>SouthAfrica</t>
-  </si>
-  <si>
-    <t>SouthKorea</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>SriLanka</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -279,18 +250,12 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>TrinidadandTobago</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>UnitedStates</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -301,6 +266,42 @@
   </si>
   <si>
     <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -1146,12 +1147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1718,10 +1720,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>2000ChineseTaipei</v>
+        <v>2000Chinese Taipei</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C18">
         <v>2000</v>
@@ -1754,7 +1756,7 @@
         <v>2000Colombia</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>2000</v>
@@ -1784,10 +1786,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>2000CostaRica</v>
+        <v>2000Costa Rica</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>2000</v>
@@ -1820,7 +1822,7 @@
         <v>2000Croatia</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>2000</v>
@@ -1853,7 +1855,7 @@
         <v>2000Cuba</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>2000</v>
@@ -1883,10 +1885,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>2000CzechRepublic</v>
+        <v>2000Czech Republic</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>2000</v>
@@ -1919,7 +1921,7 @@
         <v>2000Denmark</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>2000</v>
@@ -1952,7 +1954,7 @@
         <v>2000Estonia</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1985,7 +1987,7 @@
         <v>2000Ethiopia</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2000</v>
@@ -2018,7 +2020,7 @@
         <v>2000Finland</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -2051,7 +2053,7 @@
         <v>2000France</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2000</v>
@@ -2084,7 +2086,7 @@
         <v>2000Georgia</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>2000</v>
@@ -2117,7 +2119,7 @@
         <v>2000Germany</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>2000</v>
@@ -2147,10 +2149,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>2000GreatBritain</v>
+        <v>2000Great Britain</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>2000</v>
@@ -2183,7 +2185,7 @@
         <v>2000Greece</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>2000</v>
@@ -2216,7 +2218,7 @@
         <v>2000Hungary</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>2000</v>
@@ -2249,7 +2251,7 @@
         <v>2000Iceland</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>2000</v>
@@ -2282,7 +2284,7 @@
         <v>2000India</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>2000</v>
@@ -2315,7 +2317,7 @@
         <v>2000Indonesia</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -2348,7 +2350,7 @@
         <v>2000Iran</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>2000</v>
@@ -2381,7 +2383,7 @@
         <v>2000Ireland</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>2000</v>
@@ -2414,7 +2416,7 @@
         <v>2000Israel</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>2000</v>
@@ -2447,7 +2449,7 @@
         <v>2000Italy</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>2000</v>
@@ -2480,7 +2482,7 @@
         <v>2000Jamaica</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>2000</v>
@@ -2513,7 +2515,7 @@
         <v>2000Japan</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>2000</v>
@@ -2546,7 +2548,7 @@
         <v>2000Kazakhstan</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>2000</v>
@@ -2579,7 +2581,7 @@
         <v>2000Kenya</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>2000</v>
@@ -2612,7 +2614,7 @@
         <v>2000Kuwait</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>2000</v>
@@ -2645,7 +2647,7 @@
         <v>2000Kyrgyzstan</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>2000</v>
@@ -2678,7 +2680,7 @@
         <v>2000Latvia</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>2000</v>
@@ -2711,7 +2713,7 @@
         <v>2000Lithuania</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>2000</v>
@@ -2744,7 +2746,7 @@
         <v>2000Macedonia</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>2000</v>
@@ -2777,7 +2779,7 @@
         <v>2000Mexico</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>2000</v>
@@ -2810,7 +2812,7 @@
         <v>2000Moldova</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>2000</v>
@@ -2843,7 +2845,7 @@
         <v>2000Morocco</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -2876,7 +2878,7 @@
         <v>2000Mozambique</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>2000</v>
@@ -2909,7 +2911,7 @@
         <v>2000Netherlands</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>2000</v>
@@ -2939,10 +2941,10 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>2000NewZealand</v>
+        <v>2000New Zealand</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C55">
         <v>2000</v>
@@ -2975,7 +2977,7 @@
         <v>2000Nigeria</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>2000</v>
@@ -3005,10 +3007,10 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>2000NorthKorea</v>
+        <v>2000North Korea</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C57">
         <v>2000</v>
@@ -3041,7 +3043,7 @@
         <v>2000Norway</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>2000</v>
@@ -3074,7 +3076,7 @@
         <v>2000Poland</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>2000</v>
@@ -3107,7 +3109,7 @@
         <v>2000Portugal</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>2000</v>
@@ -3140,7 +3142,7 @@
         <v>2000Qatar</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>2000</v>
@@ -3173,7 +3175,7 @@
         <v>2000Romania</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>2000</v>
@@ -3206,7 +3208,7 @@
         <v>2000Russia</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>2000</v>
@@ -3236,10 +3238,10 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>2000SaudiArabia</v>
+        <v>2000Saudi Arabia</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C64">
         <v>2000</v>
@@ -3272,7 +3274,7 @@
         <v>2000Slovakia</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C65">
         <v>2000</v>
@@ -3305,7 +3307,7 @@
         <v>2000Slovenia</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C66">
         <v>2000</v>
@@ -3335,10 +3337,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f t="shared" ref="A67:A81" si="1">C67&amp;B67</f>
-        <v>2000SouthAfrica</v>
+        <v>2000South Africa</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C67">
         <v>2000</v>
@@ -3368,10 +3370,10 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>2000SouthKorea</v>
+        <v>2000South Korea</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C68">
         <v>2000</v>
@@ -3404,7 +3406,7 @@
         <v>2000Spain</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>2000</v>
@@ -3434,10 +3436,10 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>2000SriLanka</v>
+        <v>2000Sri Lanka</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C70">
         <v>2000</v>
@@ -3470,7 +3472,7 @@
         <v>2000Sweden</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>2000</v>
@@ -3503,7 +3505,7 @@
         <v>2000Switzerland</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>2000</v>
@@ -3536,7 +3538,7 @@
         <v>2000Thailand</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>2000</v>
@@ -3566,10 +3568,10 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>2000TrinidadandTobago</v>
+        <v>2000Trinidad and Tobago</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <v>2000</v>
@@ -3602,7 +3604,7 @@
         <v>2000Turkey</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>2000</v>
@@ -3635,7 +3637,7 @@
         <v>2000Ukraine</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>2000</v>
@@ -3665,10 +3667,10 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>2000UnitedStates</v>
+        <v>2000United States</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -3701,7 +3703,7 @@
         <v>2000Uruguay</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C78">
         <v>2000</v>
@@ -3734,7 +3736,7 @@
         <v>2000Uzbekistan</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C79">
         <v>2000</v>
@@ -3767,7 +3769,7 @@
         <v>2000Vietnam</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>2000</v>
@@ -3800,7 +3802,7 @@
         <v>2000Yugoslavia</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C81">
         <v>2000</v>
@@ -3830,4 +3832,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086E1C04-714E-7C42-B72F-091DFABC8232}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>